--- a/evaluate/results/eval.xlsx
+++ b/evaluate/results/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Bachelor_research_project\evaluate\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1F1EB-8931-4E7C-BB55-CE386930B5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D36CB-9F83-4C2C-8362-3EECCF7D9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4386,11 +4386,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4430,7 +4439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4446,10 +4455,10 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -6140,7 +6149,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>480</v>
       </c>
@@ -6174,7 +6183,7 @@
       <c r="K47" t="s">
         <v>526</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" t="s">
         <v>545</v>
       </c>
     </row>

--- a/evaluate/results/eval.xlsx
+++ b/evaluate/results/eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\Bachelor_research_project\evaluate\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D36CB-9F83-4C2C-8362-3EECCF7D9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E70DF-BA41-4D62-BB4E-C2C61A598C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4074,7 +4074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4082,6 +4082,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4386,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4439,7 +4440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4455,10 +4456,10 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -4895,7 +4896,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -4908,7 +4909,7 @@
       <c r="D14" t="s">
         <v>156</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F14" t="s">
